--- a/data/trans_dic/P55$privada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,27 +725,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,62</t>
+          <t>0,0; 64,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,15</t>
+          <t>0,0; 71,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,14</t>
+          <t>0,0; 70,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,61; 51,9</t>
+          <t>10,06; 50,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,75; 78,61</t>
+          <t>24,77; 79,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,15; 88,95</t>
+          <t>15,03; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 54,2</t>
+          <t>12,56; 57,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 63,59</t>
+          <t>21,7; 63,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,94; 71,19</t>
+          <t>8,9; 71,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,72; 73,46</t>
+          <t>15,7; 71,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 47,82</t>
+          <t>16,02; 46,14</t>
         </is>
       </c>
     </row>
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,69</t>
+          <t>0,0; 56,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,94</t>
+          <t>0,0; 62,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,38</t>
+          <t>0,0; 51,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,33; 38,74</t>
+          <t>7,31; 38,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +890,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,29</t>
+          <t>0,0; 72,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 100,0</t>
+          <t>14,53; 83,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 33,55</t>
+          <t>3,67; 29,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 54,69</t>
+          <t>7,3; 54,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 58,94</t>
+          <t>6,2; 54,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 52,87</t>
+          <t>11,16; 52,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 28,93</t>
+          <t>8,27; 29,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,4</t>
+          <t>0,0; 27,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,05</t>
+          <t>0,0; 27,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 54,04</t>
+          <t>10,74; 54,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 32,44</t>
+          <t>7,41; 32,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 77,21</t>
+          <t>12,94; 78,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 41,2</t>
+          <t>5,27; 40,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,7</t>
+          <t>0,0; 41,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 29,86</t>
+          <t>6,95; 30,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 34,85</t>
+          <t>4,51; 37,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 25,96</t>
+          <t>4,5; 25,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 40,08</t>
+          <t>8,92; 40,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 25,71</t>
+          <t>9,46; 25,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 22,89</t>
+          <t>6,19; 21,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 27,58</t>
+          <t>7,92; 26,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 23,13</t>
+          <t>4,06; 22,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 21,89</t>
+          <t>7,99; 20,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,21</t>
+          <t>0,0; 25,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,08</t>
+          <t>0,0; 41,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 39,18</t>
+          <t>6,67; 36,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 25,12</t>
+          <t>9,01; 26,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 19,26</t>
+          <t>6,16; 18,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 24,75</t>
+          <t>8,49; 25,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 23,9</t>
+          <t>7,89; 24,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,13; 20,29</t>
+          <t>9,94; 20,23</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,17</t>
+          <t>0,0; 22,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 20,68</t>
+          <t>2,78; 23,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 23,1</t>
+          <t>3,87; 21,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 27,16</t>
+          <t>7,06; 28,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,34; 44,0</t>
+          <t>11,86; 43,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 15,02</t>
+          <t>2,5; 13,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 23,95</t>
+          <t>4,14; 23,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 20,44</t>
+          <t>10,75; 21,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 32,96</t>
+          <t>9,44; 32,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 14,01</t>
+          <t>3,5; 14,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 18,61</t>
+          <t>5,38; 18,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,08; 20,07</t>
+          <t>11,27; 20,16</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,98; 26,82</t>
+          <t>11,7; 25,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,58; 27,95</t>
+          <t>13,64; 28,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 19,97</t>
+          <t>7,41; 21,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,34; 26,66</t>
+          <t>16,22; 26,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,3; 25,77</t>
+          <t>12,55; 25,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,58; 27,95</t>
+          <t>13,64; 28,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 19,97</t>
+          <t>7,41; 21,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,77; 25,95</t>
+          <t>16,04; 25,81</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 17,85</t>
+          <t>7,32; 18,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,83; 20,93</t>
+          <t>8,3; 20,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,13; 21,11</t>
+          <t>9,49; 21,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,46; 20,43</t>
+          <t>11,7; 20,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,56; 27,69</t>
+          <t>16,6; 27,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,3; 21,44</t>
+          <t>12,25; 21,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,34; 21,26</t>
+          <t>11,14; 20,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,27; 21,28</t>
+          <t>15,51; 21,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,77; 22,51</t>
+          <t>14,36; 22,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,26; 20,02</t>
+          <t>12,2; 19,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,63; 19,96</t>
+          <t>11,71; 19,14</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 20,2</t>
+          <t>15,22; 20,21</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, tiene ayuda privada cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2409</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2141</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3296</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4012</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9656</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6246</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6504</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6040</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4987</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1207; 6021</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3311; 10569</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3261</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1209; 8045</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1740; 7963</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5103; 14871</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1038; 8289</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2367; 10756</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4142; 11928</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3375</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2826</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3191</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4208</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4864</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5249</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6085</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5906</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5490</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1276; 6770</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4462</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6405</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>975; 5587</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>503; 4038</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1179; 8881</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1136; 10031</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1949; 9224</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2578; 9178</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3496</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3332</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3351</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2607</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3453</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5343</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7279</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6949</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4878</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6707</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1770; 9005</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1570; 6793</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1077; 6539</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1001; 7724</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6709</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1473; 6435</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1187; 9798</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1954; 10989</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2926; 13292</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4008; 10840</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8897</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10839</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9938</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6128</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6214</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10695</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>13875</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10357</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16152</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4373; 15456</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5372; 18079</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1619; 8853</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5755; 15050</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6051</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8718</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2189; 11921</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3496; 10115</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5795; 17412</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7527; 22214</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5733; 17525</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11016; 22422</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3133</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5131</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9294</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6239</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5786</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14166</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10166</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9372</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10917</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18587</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3615</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1000; 8324</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1830; 10230</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2122; 8635</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4318; 15673</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2087; 11618</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2196; 12513</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10017; 20135</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4957; 16989</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4184; 16741</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5402; 18321</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13896; 24845</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26402</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>28642</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>19272</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29528</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>26402</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28642</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>19272</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29528</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 705</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16850; 37108</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19513; 40391</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10915; 30982</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>22865; 38049</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>18186; 37314</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>19513; 40391</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10915; 30982</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22964; 36946</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>15010</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20142</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>17621</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>24527</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>50394</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>46303</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>41450</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>59247</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>65404</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>66445</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>59071</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>83774</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9267; 23059</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12129; 29601</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11525; 26215</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>18119; 32396</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>38331; 64313</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>34134; 60772</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29432; 55461</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>49902; 70448</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>51325; 80466</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>51822; 83066</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>45142; 73803</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>72522; 96337</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P55$privada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
